--- a/biology/Médecine/Autorisation_d'accès_compassionnel/Autorisation_d'accès_compassionnel.xlsx
+++ b/biology/Médecine/Autorisation_d'accès_compassionnel/Autorisation_d'accès_compassionnel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Autorisation_d%27acc%C3%A8s_compassionnel</t>
+          <t>Autorisation_d'accès_compassionnel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une autorisation d'accès compassionnel (ou AAC) est un dispositif français créé en juillet 2021 permettant l'accès à certains médicaments ne possédant pas d'autorisation de mise sur le marché (AMM) n'étant pas destiné à la commercialisation. Sur demande de l'ANSM, ces derniers peuvent cependant être mis à disposition pour certains patients affectés par des pathologies non traitables par des médicaments disposant d'AMM [1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une autorisation d'accès compassionnel (ou AAC) est un dispositif français créé en juillet 2021 permettant l'accès à certains médicaments ne possédant pas d'autorisation de mise sur le marché (AMM) n'étant pas destiné à la commercialisation. Sur demande de l'ANSM, ces derniers peuvent cependant être mis à disposition pour certains patients affectés par des pathologies non traitables par des médicaments disposant d'AMM ,.
 Elle remplace les recommandations temporaires d’utilisation (RTU).
-Les autorisations d'accès précoces (AAP) créées en 2021 en parallèle des AAC remplace quant à elle les autorisations temporaires d'utilisations (ATU), et particulièrement les ATU d'extensions d'indications (ATUei), les post-ATU, les ATU de cohortes (ATUc) et les prises en charge temporaire (PECT)[1],[2].
+Les autorisations d'accès précoces (AAP) créées en 2021 en parallèle des AAC remplace quant à elle les autorisations temporaires d'utilisations (ATU), et particulièrement les ATU d'extensions d'indications (ATUei), les post-ATU, les ATU de cohortes (ATUc) et les prises en charge temporaire (PECT),.
 </t>
         </is>
       </c>
